--- a/datos_fbref/CLASIFICACION_LIGA_Premier_League.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Premier_League.xlsx
@@ -513,35 +513,35 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>D L W W D</t>
+          <t>L W W D D</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -1577,39 +1577,39 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
         <v>-32</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>D L L L D</t>
+          <t>L L L D D</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>29794</v>
+        <v>29798</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
